--- a/dashboard_loader/disability_labour_participation_uploader/disability_labour_participation.xlsx
+++ b/dashboard_loader/disability_labour_participation_uploader/disability_labour_participation.xlsx
@@ -120,8 +120,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The </t>
@@ -131,8 +131,8 @@
         <i val="true"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">National Disability Strategy 2010-2020 Second Implementation Plan</t>
@@ -141,8 +141,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
@@ -152,8 +152,8 @@
         <i val="true"/>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Driving Action 2015-2018</t>
@@ -162,8 +162,8 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val=""/>
-        <family val="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, identifies improving employment outcomes for people with disability as one of four areas of national co-operation that will receive additional effort during the second implementation phase.</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">ABS Survey of Disability, Ageing and Carers, various years.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference</t>
+    <t xml:space="preserve">References</t>
   </si>
   <si>
     <r>
@@ -201,6 +201,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The Organisation for Economic Co-operation and Development (OECD), 2010, </t>
     </r>
@@ -209,6 +210,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sickness, Disability and Work: Breaking the Barriers: A Synthesis of Findings across OECD Countries. </t>
     </r>
@@ -222,7 +224,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -334,18 +336,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -354,11 +349,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -569,11 +566,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1403,7 +1400,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
